--- a/sks-kobe-t/pdf/report8.xlsx
+++ b/sks-kobe-t/pdf/report8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAA81BEC-3211-4B2D-812A-731354DEEC89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7762185-E87E-4BB1-96B9-1083715A1303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>(警備場所)</t>
     <rPh sb="1" eb="3">
@@ -2778,7 +2778,7 @@
   <dimension ref="B1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2968,9 +2968,7 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="14" t="s">
-        <v>6</v>
-      </c>
+      <c r="V7" s="14"/>
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">

--- a/sks-kobe-t/pdf/report8.xlsx
+++ b/sks-kobe-t/pdf/report8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7762185-E87E-4BB1-96B9-1083715A1303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903304F-298B-4AC0-8594-B05177F52DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="54">
   <si>
     <t>(警備場所)</t>
     <rPh sb="1" eb="3">
@@ -467,6 +467,191 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.待機場Ａ　稼働時間</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.作業結果(警備中における異状の有無)</t>
+    <rPh sb="2" eb="4">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.待機場Ａに進入、待機、出場するコンテナ車両に対する交通誘導</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.待機場Ａと交差して、Ｃ５ゲートを出場する車両全般の安全確保</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウサ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ゼンパン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>アンゼン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.その他</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.交差点「甲南大学前」における、待機場Ａへ向かうコンテナ車両の交通誘導</t>
+    <rPh sb="2" eb="5">
+      <t>コウサテン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.待機場Ａに進入するコンテナ車両と交差して、Ｃ５ゲートから出場する</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.待機場Ａに進入するコンテナ車両の交通誘導</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.東サブゲートに進入するコンテナ車両と交差して、待機場Ａ内を通過する</t>
+    <rPh sb="2" eb="3">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5.待機場Ａを出場するコンテナ車両の交通誘導</t>
+    <rPh sb="2" eb="4">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュツジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ユウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.その他</t>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2778,7 +2963,7 @@
   <dimension ref="B1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3024,7 +3209,7 @@
     <row r="10" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="39"/>
       <c r="C10" s="40" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -3070,7 +3255,7 @@
     <row r="12" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -3168,7 +3353,7 @@
     <row r="16" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
       <c r="C16" s="40" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -3194,7 +3379,7 @@
     <row r="17" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -3220,7 +3405,7 @@
     <row r="18" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="40" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -3296,7 +3481,7 @@
     <row r="21" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="47"/>
       <c r="C21" s="40" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -3322,7 +3507,7 @@
     <row r="22" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="40" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -3374,7 +3559,7 @@
     <row r="24" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
       <c r="C24" s="40" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -3400,7 +3585,7 @@
     <row r="25" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
       <c r="C25" s="40" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -3452,7 +3637,7 @@
     <row r="27" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="40" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -3478,7 +3663,7 @@
     <row r="28" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>

--- a/sks-kobe-t/pdf/report8.xlsx
+++ b/sks-kobe-t/pdf/report8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A903304F-298B-4AC0-8594-B05177F52DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CEFF717-E487-4FEF-B879-0B0B7DF6A555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,25 +452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　令和　　年　　月　　日(　　曜日)</t>
-    <rPh sb="1" eb="3">
-      <t>レイワ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヨウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1.待機場Ａ　稼働時間</t>
     <rPh sb="2" eb="4">
       <t>タイキ</t>
@@ -652,6 +633,22 @@
     <t>6.その他</t>
     <rPh sb="4" eb="5">
       <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　　年　　月　　日(　　曜日)</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2963,7 +2960,7 @@
   <dimension ref="B1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3108,7 +3105,7 @@
     </row>
     <row r="6" spans="2:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="57" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C6" s="58"/>
       <c r="D6" s="58"/>
@@ -3209,7 +3206,7 @@
     <row r="10" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="39"/>
       <c r="C10" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -3255,7 +3252,7 @@
     <row r="12" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="39"/>
       <c r="C12" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -3353,7 +3350,7 @@
     <row r="16" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="39"/>
       <c r="C16" s="40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -3379,7 +3376,7 @@
     <row r="17" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="39"/>
       <c r="C17" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -3405,7 +3402,7 @@
     <row r="18" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="39"/>
       <c r="C18" s="40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -3481,7 +3478,7 @@
     <row r="21" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="47"/>
       <c r="C21" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -3507,7 +3504,7 @@
     <row r="22" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="39"/>
       <c r="C22" s="40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -3559,7 +3556,7 @@
     <row r="24" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="39"/>
       <c r="C24" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -3585,7 +3582,7 @@
     <row r="25" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="39"/>
       <c r="C25" s="40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
@@ -3637,7 +3634,7 @@
     <row r="27" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="39"/>
       <c r="C27" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -3663,7 +3660,7 @@
     <row r="28" spans="2:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
